--- a/myapp/files/9_MethodComparePercent/Scenario 292.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 292.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14733</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.17166997337924</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.41342756183746</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>736</v>
+        <v>17893</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0065232553369</v>
+        <v>2.63745950136936</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.76678445229682</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.17391304347826</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" t="n">
-        <v>2.85714285714286</v>
+        <v>1.42857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3700</v>
+        <v>19421</v>
       </c>
       <c r="F4" t="n">
-        <v>5.05996745210125</v>
+        <v>2.8626893743975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.34782608695652</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2332</v>
+        <v>15685</v>
       </c>
       <c r="F5" t="n">
-        <v>3.18914705359463</v>
+        <v>2.31199643877374</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.34782608695652</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3707</v>
+        <v>18528</v>
       </c>
       <c r="F6" t="n">
-        <v>5.06954036349712</v>
+        <v>2.73105961221548</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.34782608695652</v>
+        <v>2.47349823321555</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9459</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.39427314723371</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.41342756183746</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10023</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.47740773387499</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.41342756183746</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15502</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.28502191864013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.47349823321555</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1035</v>
+        <v>26157</v>
       </c>
       <c r="F10" t="n">
-        <v>1.41542332781751</v>
+        <v>3.85558755811314</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>2.17391304347826</v>
+        <v>3.886925795053</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>450</v>
+        <v>29183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.61540144687718</v>
+        <v>4.30162525168849</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>4.34782608695652</v>
+        <v>4.9469964664311</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.799949293798219</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.353356890459364</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>270</v>
+        <v>14805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.369240868126308</v>
+        <v>2.18228289933345</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.17391304347826</v>
+        <v>2.12014134275618</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>10937</v>
+        <v>43493</v>
       </c>
       <c r="F14" t="n">
-        <v>14.9569902766571</v>
+        <v>6.41094428508678</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>13.0434782608696</v>
+        <v>6.71378091872792</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7008</v>
+        <v>64199</v>
       </c>
       <c r="F15" t="n">
-        <v>9.58385186603394</v>
+        <v>9.46304490741696</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>10.8695652173913</v>
+        <v>10.2473498233216</v>
       </c>
       <c r="K15" t="n">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6788</v>
+        <v>52128</v>
       </c>
       <c r="F16" t="n">
-        <v>9.28298893644954</v>
+        <v>7.68375839084458</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J16" t="n">
-        <v>10.8695652173913</v>
+        <v>8.12720848056537</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.799949293798219</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.353356890459364</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>14265</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.10268595467691</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.76678445229682</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>26247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.8688537155559</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>11.4285714285714</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.59363957597173</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>198</v>
+        <v>65361</v>
       </c>
       <c r="F20" t="n">
-        <v>0.270776636625959</v>
+        <v>9.63432574017788</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -1277,10 +1277,10 @@
         <v>24.2857142857143</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J20" t="n">
-        <v>2.17391304347826</v>
+        <v>11.660777385159</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>990</v>
+        <v>68711</v>
       </c>
       <c r="F21" t="n">
-        <v>1.3538831831298</v>
+        <v>10.1281216005472</v>
       </c>
       <c r="G21" t="n">
         <v>11</v>
@@ -1315,10 +1315,10 @@
         <v>15.7142857142857</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
-        <v>2.17391304347826</v>
+        <v>9.89399293286219</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2116</v>
+        <v>7476</v>
       </c>
       <c r="F22" t="n">
-        <v>2.89375435909358</v>
+        <v>1.10197547824498</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.17391304347826</v>
+        <v>0.706713780918728</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3726</v>
+        <v>10206</v>
       </c>
       <c r="F23" t="n">
-        <v>5.09552398014305</v>
+        <v>1.50438225400859</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.17391304347826</v>
+        <v>0.706713780918728</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3782</v>
+        <v>14614</v>
       </c>
       <c r="F24" t="n">
-        <v>5.17210727130998</v>
+        <v>2.15412916520493</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1429,10 +1429,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>4.34782608695652</v>
+        <v>2.47349823321555</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>9014</v>
+        <v>44307</v>
       </c>
       <c r="F25" t="n">
-        <v>12.3271747603353</v>
+        <v>6.53092930906904</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,10 +1467,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>10.8695652173913</v>
+        <v>7.77385159010601</v>
       </c>
       <c r="K25" t="n">
         <v>6</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>16334</v>
+        <v>65168</v>
       </c>
       <c r="F26" t="n">
-        <v>22.3377049628708</v>
+        <v>9.60587720255064</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1505,16 +1505,16 @@
         <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>17.3913043478261</v>
+        <v>9.18727915194346</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>15.7142857142857</v>
+        <v>14.2857142857143</v>
       </c>
     </row>
   </sheetData>
